--- a/hrs/G2A HRS Longitudinal Variable List.xlsx
+++ b/hrs/G2A HRS Longitudinal Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2898E7EA-536E-4C69-8419-64A2550AAF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D17F9B-036E-4E55-88C1-D3C55AE4C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-15210" windowWidth="16440" windowHeight="28440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-15210" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave8" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="589">
   <si>
     <t>BMI</t>
   </si>
@@ -1746,6 +1746,54 @@
   </si>
   <si>
     <t>S14EDUCL</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>marstat</t>
+  </si>
+  <si>
+    <t>R14MSTAT</t>
+  </si>
+  <si>
+    <t>S14MSTAT</t>
+  </si>
+  <si>
+    <t>R13MSTAT</t>
+  </si>
+  <si>
+    <t>S13MSTAT</t>
+  </si>
+  <si>
+    <t>R12MSTAT</t>
+  </si>
+  <si>
+    <t>S12MSTAT</t>
+  </si>
+  <si>
+    <t>R11MSTAT</t>
+  </si>
+  <si>
+    <t>S11MSTAT</t>
+  </si>
+  <si>
+    <t>R10MSTAT</t>
+  </si>
+  <si>
+    <t>S10MSTAT</t>
+  </si>
+  <si>
+    <t>R9MSTAT</t>
+  </si>
+  <si>
+    <t>S9MSTAT</t>
+  </si>
+  <si>
+    <t>R8MSTAT</t>
+  </si>
+  <si>
+    <t>S8MSTAT</t>
   </si>
 </sst>
 </file>
@@ -2298,13 +2346,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10186C6F-BDD5-4582-A081-8CCA034FDB9F}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3224,31 +3273,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3257,13 +3303,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -3272,19 +3324,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>565</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -3293,29 +3339,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3325,13 +3392,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402DEB4F-F9A8-4998-83EB-DEA9A79D2A12}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4251,31 +4319,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -4284,13 +4349,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -4299,19 +4370,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -4320,29 +4385,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4352,13 +4438,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DB33B7-BCD3-4D28-AC39-7800AC56B343}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5278,31 +5365,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -5311,13 +5395,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -5326,19 +5416,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -5347,29 +5431,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5379,13 +5484,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B5DC06-3C98-4C0D-AB4D-188AF125BA6B}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6305,31 +6411,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -6338,13 +6441,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -6353,19 +6462,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -6374,29 +6477,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6406,13 +6530,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581D3D43-A935-4EC9-86EC-C8C3944D3E11}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7332,31 +7457,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -7365,13 +7487,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -7380,19 +7508,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -7401,29 +7523,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7433,13 +7576,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1149310-DFBD-437B-AA38-15E3D7623C20}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8359,31 +8503,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -8392,13 +8533,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -8407,19 +8554,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -8428,29 +8569,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8460,13 +8622,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209F2E6C-4F17-4ED0-8D83-63A50DE26C70}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9386,31 +9549,28 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>574</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -9419,13 +9579,19 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -9434,19 +9600,13 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -9455,29 +9615,50 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F57"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F58"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B68:B1048576 B53:B63 B1">
+  <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 H47:I47 F1 H46 H48:H55 F58:F1048576">
+  <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 I46:I55 D56:E1048576 G1 D1:E1">
+  <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hrs/G2A HRS Longitudinal Variable List.xlsx
+++ b/hrs/G2A HRS Longitudinal Variable List.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D17F9B-036E-4E55-88C1-D3C55AE4C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C204F-C504-4AB2-85C9-3AA8F29B7A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-15210" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave8" sheetId="14" r:id="rId1"/>
-    <sheet name="wave9" sheetId="12" r:id="rId2"/>
-    <sheet name="wave10" sheetId="13" r:id="rId3"/>
-    <sheet name="wave11" sheetId="11" r:id="rId4"/>
-    <sheet name="wave12" sheetId="10" r:id="rId5"/>
-    <sheet name="wave13" sheetId="8" r:id="rId6"/>
-    <sheet name="wave14" sheetId="9" r:id="rId7"/>
-    <sheet name="household" sheetId="7" r:id="rId8"/>
+    <sheet name="biomarker" sheetId="15" r:id="rId2"/>
+    <sheet name="wave9" sheetId="12" r:id="rId3"/>
+    <sheet name="wave10" sheetId="13" r:id="rId4"/>
+    <sheet name="wave11" sheetId="11" r:id="rId5"/>
+    <sheet name="wave12" sheetId="10" r:id="rId6"/>
+    <sheet name="wave13" sheetId="8" r:id="rId7"/>
+    <sheet name="wave14" sheetId="9" r:id="rId8"/>
+    <sheet name="household" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="606">
   <si>
     <t>BMI</t>
   </si>
@@ -1794,6 +1795,57 @@
   </si>
   <si>
     <t>S8MSTAT</t>
+  </si>
+  <si>
+    <t>RAEHSAMP</t>
+  </si>
+  <si>
+    <t>A1C BIOSAFE</t>
+  </si>
+  <si>
+    <t>a1cbios</t>
+  </si>
+  <si>
+    <t>wave6</t>
+  </si>
+  <si>
+    <t>wave8</t>
+  </si>
+  <si>
+    <t>LA1CBIOS</t>
+  </si>
+  <si>
+    <t>KA1CBIOS</t>
+  </si>
+  <si>
+    <t>KA1C_ADJ</t>
+  </si>
+  <si>
+    <t>a1c_adj</t>
+  </si>
+  <si>
+    <t>KAHDLBIOS</t>
+  </si>
+  <si>
+    <t>ahdlbios</t>
+  </si>
+  <si>
+    <t>HDL BIOSAFE</t>
+  </si>
+  <si>
+    <t>NHANES EQUIVALENT A1C</t>
+  </si>
+  <si>
+    <t>wave10</t>
+  </si>
+  <si>
+    <t>wave12</t>
+  </si>
+  <si>
+    <t>wave14</t>
+  </si>
+  <si>
+    <t>wave16</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1911,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2348,12 +2410,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10186C6F-BDD5-4582-A081-8CCA034FDB9F}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
       <selection pane="topRight" activeCell="D52" sqref="D52"/>
       <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2424,8 +2486,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -3377,13 +3443,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3391,15 +3457,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A90E4A-1390-4FAC-90BE-D7C204CE5173}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402DEB4F-F9A8-4998-83EB-DEA9A79D2A12}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D52" sqref="D52"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3470,8 +3652,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -4423,29 +4609,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DB33B7-BCD3-4D28-AC39-7800AC56B343}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D52" sqref="D52"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4516,8 +4702,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -5469,29 +5659,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B5DC06-3C98-4C0D-AB4D-188AF125BA6B}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D52" sqref="D52"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5562,8 +5752,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -6515,29 +6709,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581D3D43-A935-4EC9-86EC-C8C3944D3E11}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D52" sqref="D52"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6608,8 +6802,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -7561,29 +7759,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1149310-DFBD-437B-AA38-15E3D7623C20}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D52" sqref="D52"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7654,8 +7852,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -8607,29 +8809,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209F2E6C-4F17-4ED0-8D83-63A50DE26C70}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D52" sqref="D52"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8700,8 +8902,12 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
@@ -9653,20 +9859,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B69:B1048576 B54:B64 B1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 H47:I47 F1 H46 H48:H56 F59:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G1048576 I46:I56 D57:E1048576 G1 D1:E1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516FB498-DDE8-483E-BF1C-FF0717D5B9F0}">
   <dimension ref="A2:D10"/>
   <sheetViews>

--- a/hrs/G2A HRS Longitudinal Variable List.xlsx
+++ b/hrs/G2A HRS Longitudinal Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF74C0-A94E-4CC3-8486-5A5D333B861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09013204-5CC5-44DF-BF13-41160E3B3833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave8" sheetId="14" r:id="rId1"/>
@@ -2428,7 +2428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2463,12 +2463,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2762,10 +2756,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4152,7 +4142,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9346,7 +9336,7 @@
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/hrs/G2A HRS Longitudinal Variable List.xlsx
+++ b/hrs/G2A HRS Longitudinal Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09013204-5CC5-44DF-BF13-41160E3B3833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F2813-95B3-4D8B-8B76-379C9749EB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-15840" windowWidth="16440" windowHeight="28440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave8" sheetId="14" r:id="rId1"/>
@@ -639,27 +639,9 @@
     <t>R13BPDIA</t>
   </si>
   <si>
-    <t>R13WEIGHT</t>
-  </si>
-  <si>
-    <t>R13HEIGHT</t>
-  </si>
-  <si>
-    <t>R13BMI</t>
-  </si>
-  <si>
     <t>R13PMWAIST</t>
   </si>
   <si>
-    <t>S13WEIGHT</t>
-  </si>
-  <si>
-    <t>S13HEIGHT</t>
-  </si>
-  <si>
-    <t>S13BMI</t>
-  </si>
-  <si>
     <t>S13PMWAIST</t>
   </si>
   <si>
@@ -798,15 +780,6 @@
     <t>R14RXDIAB</t>
   </si>
   <si>
-    <t>R14WEIGHT</t>
-  </si>
-  <si>
-    <t>R14HEIGHT</t>
-  </si>
-  <si>
-    <t>R14BMI</t>
-  </si>
-  <si>
     <t>R14PMWAIST</t>
   </si>
   <si>
@@ -864,15 +837,6 @@
     <t>S14DIABE</t>
   </si>
   <si>
-    <t>S14WEIGHT</t>
-  </si>
-  <si>
-    <t>S14HEIGHT</t>
-  </si>
-  <si>
-    <t>S14BMI</t>
-  </si>
-  <si>
     <t>S14PMWAIST</t>
   </si>
   <si>
@@ -975,24 +939,6 @@
     <t>S12RXDIAB</t>
   </si>
   <si>
-    <t>R12WEIGHT</t>
-  </si>
-  <si>
-    <t>S12WEIGHT</t>
-  </si>
-  <si>
-    <t>R12HEIGHT</t>
-  </si>
-  <si>
-    <t>S12HEIGHT</t>
-  </si>
-  <si>
-    <t>R12BMI</t>
-  </si>
-  <si>
-    <t>S12BMI</t>
-  </si>
-  <si>
     <t>R12PMWAIST</t>
   </si>
   <si>
@@ -1146,24 +1092,6 @@
     <t>S11RXDIAB</t>
   </si>
   <si>
-    <t>R11WEIGHT</t>
-  </si>
-  <si>
-    <t>S11WEIGHT</t>
-  </si>
-  <si>
-    <t>R11HEIGHT</t>
-  </si>
-  <si>
-    <t>S11HEIGHT</t>
-  </si>
-  <si>
-    <t>R11BMI</t>
-  </si>
-  <si>
-    <t>S11BMI</t>
-  </si>
-  <si>
     <t>R11PMWAIST</t>
   </si>
   <si>
@@ -1317,24 +1245,6 @@
     <t>S9RXDIAB</t>
   </si>
   <si>
-    <t>R9WEIGHT</t>
-  </si>
-  <si>
-    <t>S9WEIGHT</t>
-  </si>
-  <si>
-    <t>R9HEIGHT</t>
-  </si>
-  <si>
-    <t>S9HEIGHT</t>
-  </si>
-  <si>
-    <t>R9BMI</t>
-  </si>
-  <si>
-    <t>S9BMI</t>
-  </si>
-  <si>
     <t>R9PMWAIST</t>
   </si>
   <si>
@@ -1488,24 +1398,6 @@
     <t>S10RXDIAB</t>
   </si>
   <si>
-    <t>R10WEIGHT</t>
-  </si>
-  <si>
-    <t>S10WEIGHT</t>
-  </si>
-  <si>
-    <t>R10HEIGHT</t>
-  </si>
-  <si>
-    <t>S10HEIGHT</t>
-  </si>
-  <si>
-    <t>R10BMI</t>
-  </si>
-  <si>
-    <t>S10BMI</t>
-  </si>
-  <si>
     <t>R10PMWAIST</t>
   </si>
   <si>
@@ -2422,6 +2314,114 @@
   </si>
   <si>
     <t>LCYSC_IMP</t>
+  </si>
+  <si>
+    <t>R9MWEIGHT</t>
+  </si>
+  <si>
+    <t>R9MHEIGHT</t>
+  </si>
+  <si>
+    <t>R9MBMI</t>
+  </si>
+  <si>
+    <t>S9MWEIGHT</t>
+  </si>
+  <si>
+    <t>S9MHEIGHT</t>
+  </si>
+  <si>
+    <t>S9MBMI</t>
+  </si>
+  <si>
+    <t>R10MWEIGHT</t>
+  </si>
+  <si>
+    <t>R10MHEIGHT</t>
+  </si>
+  <si>
+    <t>R10MBMI</t>
+  </si>
+  <si>
+    <t>S10MWEIGHT</t>
+  </si>
+  <si>
+    <t>S10MHEIGHT</t>
+  </si>
+  <si>
+    <t>S10MBMI</t>
+  </si>
+  <si>
+    <t>R11MWEIGHT</t>
+  </si>
+  <si>
+    <t>R11MHEIGHT</t>
+  </si>
+  <si>
+    <t>R11MBMI</t>
+  </si>
+  <si>
+    <t>S11MWEIGHT</t>
+  </si>
+  <si>
+    <t>S11MHEIGHT</t>
+  </si>
+  <si>
+    <t>S11MBMI</t>
+  </si>
+  <si>
+    <t>R12MWEIGHT</t>
+  </si>
+  <si>
+    <t>R12MHEIGHT</t>
+  </si>
+  <si>
+    <t>R12MBMI</t>
+  </si>
+  <si>
+    <t>S12MWEIGHT</t>
+  </si>
+  <si>
+    <t>S12MHEIGHT</t>
+  </si>
+  <si>
+    <t>S12MBMI</t>
+  </si>
+  <si>
+    <t>R13MWEIGHT</t>
+  </si>
+  <si>
+    <t>R13MHEIGHT</t>
+  </si>
+  <si>
+    <t>R13MBMI</t>
+  </si>
+  <si>
+    <t>S13MWEIGHT</t>
+  </si>
+  <si>
+    <t>S13MHEIGHT</t>
+  </si>
+  <si>
+    <t>S13MBMI</t>
+  </si>
+  <si>
+    <t>R14MWEIGHT</t>
+  </si>
+  <si>
+    <t>R14MHEIGHT</t>
+  </si>
+  <si>
+    <t>R14MBMI</t>
+  </si>
+  <si>
+    <t>S14MWEIGHT</t>
+  </si>
+  <si>
+    <t>S14MHEIGHT</t>
+  </si>
+  <si>
+    <t>S14MBMI</t>
   </si>
 </sst>
 </file>
@@ -3080,7 +3080,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3114,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -3154,10 +3154,10 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="H5"/>
     </row>
@@ -3172,10 +3172,10 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="H6"/>
     </row>
@@ -3184,16 +3184,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="H7"/>
     </row>
@@ -3275,7 +3275,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="H12"/>
     </row>
@@ -3284,13 +3284,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>117</v>
@@ -3308,10 +3308,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="E14" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>86</v>
@@ -3337,7 +3337,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="H15"/>
     </row>
@@ -3346,13 +3346,13 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -3370,10 +3370,10 @@
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -3390,10 +3390,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -3410,10 +3410,10 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -3430,10 +3430,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
@@ -3503,7 +3503,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="H25"/>
     </row>
@@ -3518,10 +3518,10 @@
         <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -3538,10 +3538,10 @@
         <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
@@ -3570,10 +3570,10 @@
         <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -3590,10 +3590,10 @@
         <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -3610,10 +3610,10 @@
         <v>164</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -3630,10 +3630,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -3650,10 +3650,10 @@
         <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -3673,7 +3673,7 @@
         <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="H34"/>
     </row>
@@ -3691,7 +3691,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="H35"/>
     </row>
@@ -3706,7 +3706,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -3717,16 +3717,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="H37"/>
     </row>
@@ -3741,10 +3741,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -3761,10 +3761,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -3775,16 +3775,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -3795,16 +3795,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="H41"/>
     </row>
@@ -3819,10 +3819,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="H42"/>
     </row>
@@ -3837,10 +3837,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="H43"/>
     </row>
@@ -3891,7 +3891,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -3909,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3951,13 +3951,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -3966,16 +3966,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3984,16 +3984,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -4002,16 +4002,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -4032,16 +4032,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -4053,13 +4053,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>104</v>
@@ -4089,13 +4089,13 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>106</v>
@@ -4110,13 +4110,13 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -4141,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A90E4A-1390-4FAC-90BE-D7C204CE5173}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4170,25 +4170,25 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -4196,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
@@ -4254,28 +4254,28 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="D4" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="F4" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="G4" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="H4" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="I4" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -4283,617 +4283,617 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="C5" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="D5" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="E5" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
       <c r="F5" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="G5" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="H5" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="E6" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B7" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="D7" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="F7" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="G7" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="H7" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="I7" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B8" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="C8" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="E8" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B9" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="C9" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="E9" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B10" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="C10" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="C11" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
       <c r="F11" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B12" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="C12" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="G12" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="H12" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="I12" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B13" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="C13" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="D13" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="E13" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B14" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="D14" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="F14" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="G14" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="H14" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="I14" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B15" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="C15" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
       <c r="E15" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B16" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="C16" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="E16" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B17" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="C17" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="E17" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B18" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="C18" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="F18" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="B19" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="G19" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="H19" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B20" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="C20" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B21" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="C21" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="D21" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B22" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="C22" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="D22" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="E22" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B23" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="D23" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="E23" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="F23" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="G23" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="H23" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="I23" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B24" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="C24" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="F24" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
       <c r="G24" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="H24" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="I24" t="s">
-        <v>768</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B25" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="D25" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="E25" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B26" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="C26" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="D26" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="E26" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B27" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="C27" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="D27" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B28" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="C28" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="D28" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="E28" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="C29" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="D29" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="E29" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B30" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="C30" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="D30" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="E30" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="F30" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="G30" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="H30" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="I30" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="B31" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
       <c r="C31" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="F31" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="G31" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="H31" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="I31" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B32" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="C32" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D32" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="E32" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B33" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="D33" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
       <c r="F33" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="G33" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="H33" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="I33" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B34" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="C34" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="E34" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B35" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="C35" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="E35" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="G35" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="H35" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="I35" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B36" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="C36" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="E36" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B37" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="C37" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
       <c r="F37" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +4914,7 @@
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4952,7 +4952,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4986,10 +4986,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -5026,10 +5026,10 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="H5"/>
     </row>
@@ -5044,10 +5044,10 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="H6"/>
     </row>
@@ -5056,16 +5056,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="H7"/>
     </row>
@@ -5147,7 +5147,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="H12"/>
     </row>
@@ -5156,13 +5156,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>117</v>
@@ -5180,10 +5180,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>86</v>
@@ -5209,7 +5209,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="H15"/>
     </row>
@@ -5218,13 +5218,13 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -5242,10 +5242,10 @@
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -5262,10 +5262,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -5282,10 +5282,10 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -5302,10 +5302,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
@@ -5375,7 +5375,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="H25"/>
     </row>
@@ -5390,10 +5390,10 @@
         <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -5410,10 +5410,10 @@
         <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
@@ -5441,11 +5441,11 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>418</v>
+      <c r="F29" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -5461,11 +5461,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>420</v>
+      <c r="F30" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -5481,11 +5481,11 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>422</v>
+      <c r="F31" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -5502,10 +5502,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -5522,10 +5522,10 @@
         <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -5545,7 +5545,7 @@
         <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="H34"/>
     </row>
@@ -5563,7 +5563,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="H35"/>
     </row>
@@ -5578,7 +5578,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -5589,16 +5589,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="H37"/>
     </row>
@@ -5613,10 +5613,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -5633,10 +5633,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -5647,16 +5647,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -5667,16 +5667,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="H41"/>
     </row>
@@ -5691,10 +5691,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="H42"/>
     </row>
@@ -5709,10 +5709,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="H43"/>
     </row>
@@ -5763,7 +5763,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -5781,7 +5781,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -5796,7 +5796,7 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -5811,7 +5811,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -5823,13 +5823,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -5838,16 +5838,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -5856,16 +5856,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -5874,16 +5874,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -5904,16 +5904,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -5925,13 +5925,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>104</v>
@@ -5961,13 +5961,13 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>106</v>
@@ -5982,13 +5982,13 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -6020,11 +6020,11 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6062,7 +6062,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -6096,10 +6096,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -6136,10 +6136,10 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="H5"/>
     </row>
@@ -6154,10 +6154,10 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="H6"/>
     </row>
@@ -6166,16 +6166,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="H7"/>
     </row>
@@ -6257,7 +6257,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="H12"/>
     </row>
@@ -6266,13 +6266,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>117</v>
@@ -6290,10 +6290,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E14" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>86</v>
@@ -6319,7 +6319,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H15"/>
     </row>
@@ -6328,13 +6328,13 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -6352,10 +6352,10 @@
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -6372,10 +6372,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -6392,10 +6392,10 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -6412,10 +6412,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
@@ -6485,7 +6485,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="H25"/>
     </row>
@@ -6500,10 +6500,10 @@
         <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -6520,10 +6520,10 @@
         <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
@@ -6551,11 +6551,11 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>475</v>
+      <c r="F29" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -6571,11 +6571,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>477</v>
+      <c r="F30" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -6591,11 +6591,11 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>479</v>
+      <c r="F31" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -6612,10 +6612,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -6632,10 +6632,10 @@
         <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -6655,7 +6655,7 @@
         <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="H34"/>
     </row>
@@ -6673,7 +6673,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="H35"/>
     </row>
@@ -6688,7 +6688,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -6699,16 +6699,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H37"/>
     </row>
@@ -6723,10 +6723,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -6743,10 +6743,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -6757,16 +6757,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -6777,16 +6777,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="H41"/>
     </row>
@@ -6801,10 +6801,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="H42"/>
     </row>
@@ -6819,10 +6819,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="H43"/>
     </row>
@@ -6873,7 +6873,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -6891,7 +6891,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -6906,7 +6906,7 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -6921,7 +6921,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -6933,13 +6933,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -6948,16 +6948,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -6966,16 +6966,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -6984,16 +6984,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -7014,16 +7014,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -7035,13 +7035,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>104</v>
@@ -7071,13 +7071,13 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>106</v>
@@ -7092,13 +7092,13 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -7124,11 +7124,11 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7166,7 +7166,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -7200,10 +7200,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -7240,10 +7240,10 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="H5"/>
     </row>
@@ -7258,10 +7258,10 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="H6"/>
     </row>
@@ -7270,16 +7270,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="H7"/>
     </row>
@@ -7361,7 +7361,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="H12"/>
     </row>
@@ -7370,13 +7370,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>117</v>
@@ -7394,10 +7394,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>86</v>
@@ -7423,7 +7423,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="H15"/>
     </row>
@@ -7432,13 +7432,13 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -7456,10 +7456,10 @@
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -7476,10 +7476,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -7496,10 +7496,10 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -7516,10 +7516,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
@@ -7589,7 +7589,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="H25"/>
     </row>
@@ -7604,10 +7604,10 @@
         <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -7624,10 +7624,10 @@
         <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
@@ -7655,11 +7655,11 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>361</v>
+      <c r="F29" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -7675,11 +7675,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>363</v>
+      <c r="F30" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -7695,11 +7695,11 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>365</v>
+      <c r="F31" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -7716,10 +7716,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -7736,10 +7736,10 @@
         <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -7759,7 +7759,7 @@
         <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H34"/>
     </row>
@@ -7777,7 +7777,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H35"/>
     </row>
@@ -7792,7 +7792,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -7803,16 +7803,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="H37"/>
     </row>
@@ -7827,10 +7827,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -7847,10 +7847,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -7861,16 +7861,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -7881,16 +7881,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="H41"/>
     </row>
@@ -7905,10 +7905,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="H42"/>
     </row>
@@ -7923,10 +7923,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="H43"/>
     </row>
@@ -7977,7 +7977,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -7995,7 +7995,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -8010,7 +8010,7 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -8025,7 +8025,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -8037,13 +8037,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -8052,16 +8052,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -8070,16 +8070,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -8088,16 +8088,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -8118,16 +8118,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -8139,13 +8139,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>104</v>
@@ -8175,13 +8175,13 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>106</v>
@@ -8196,13 +8196,13 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -8228,11 +8228,11 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8270,7 +8270,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8304,10 +8304,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -8344,10 +8344,10 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H5"/>
     </row>
@@ -8362,10 +8362,10 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H6"/>
     </row>
@@ -8374,16 +8374,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="H7"/>
     </row>
@@ -8465,7 +8465,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H12"/>
     </row>
@@ -8474,13 +8474,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>117</v>
@@ -8498,10 +8498,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>86</v>
@@ -8527,7 +8527,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="H15"/>
     </row>
@@ -8536,13 +8536,13 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -8560,10 +8560,10 @@
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -8580,10 +8580,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -8600,10 +8600,10 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -8620,10 +8620,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
@@ -8693,7 +8693,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H25"/>
     </row>
@@ -8708,10 +8708,10 @@
         <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -8728,10 +8728,10 @@
         <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
@@ -8759,11 +8759,11 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>304</v>
+      <c r="F29" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>771</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -8779,11 +8779,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>306</v>
+      <c r="F30" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -8799,11 +8799,11 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>308</v>
+      <c r="F31" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>773</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -8820,10 +8820,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -8840,10 +8840,10 @@
         <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -8863,7 +8863,7 @@
         <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="H34"/>
     </row>
@@ -8881,7 +8881,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H35"/>
     </row>
@@ -8896,7 +8896,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -8907,16 +8907,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H37"/>
     </row>
@@ -8931,10 +8931,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -8951,10 +8951,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -8965,16 +8965,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -8985,16 +8985,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="H41"/>
     </row>
@@ -9009,10 +9009,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="H42"/>
     </row>
@@ -9027,10 +9027,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="H43"/>
     </row>
@@ -9081,7 +9081,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -9099,7 +9099,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -9114,7 +9114,7 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -9129,7 +9129,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -9141,13 +9141,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -9156,16 +9156,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -9174,16 +9174,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -9192,16 +9192,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -9222,16 +9222,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -9243,13 +9243,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>104</v>
@@ -9279,13 +9279,13 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>106</v>
@@ -9300,13 +9300,13 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -9336,7 +9336,7 @@
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9374,7 +9374,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -9408,10 +9408,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -9478,10 +9478,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9574,10 +9574,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>126</v>
@@ -9636,10 +9636,10 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>147</v>
@@ -9859,11 +9859,11 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>195</v>
+      <c r="F29" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -9879,11 +9879,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>196</v>
+      <c r="F30" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>778</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -9899,11 +9899,11 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>197</v>
+      <c r="F31" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -9920,10 +9920,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -9996,7 +9996,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -10007,16 +10007,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H37"/>
     </row>
@@ -10031,10 +10031,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -10051,10 +10051,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -10065,16 +10065,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -10085,16 +10085,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H41"/>
     </row>
@@ -10109,10 +10109,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H42"/>
     </row>
@@ -10127,10 +10127,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H43"/>
     </row>
@@ -10181,7 +10181,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -10199,7 +10199,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -10214,7 +10214,7 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -10241,13 +10241,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -10256,16 +10256,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -10274,16 +10274,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -10292,16 +10292,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -10322,16 +10322,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -10343,7 +10343,7 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
@@ -10379,7 +10379,7 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
@@ -10400,7 +10400,7 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
@@ -10431,12 +10431,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209F2E6C-4F17-4ED0-8D83-63A50DE26C70}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7:G7"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10474,7 +10474,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -10508,10 +10508,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -10548,10 +10548,10 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H5"/>
     </row>
@@ -10566,10 +10566,10 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H6"/>
     </row>
@@ -10578,10 +10578,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -10632,7 +10632,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -10665,7 +10665,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H12"/>
     </row>
@@ -10674,13 +10674,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>117</v>
@@ -10727,7 +10727,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H15"/>
     </row>
@@ -10736,13 +10736,13 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -10760,10 +10760,10 @@
         <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -10780,10 +10780,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -10800,10 +10800,10 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -10820,10 +10820,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
@@ -10893,7 +10893,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="H25"/>
     </row>
@@ -10908,10 +10908,10 @@
         <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -10928,10 +10928,10 @@
         <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
@@ -10959,11 +10959,11 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>266</v>
+      <c r="F29" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="H29" t="s">
         <v>93</v>
@@ -10979,11 +10979,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>267</v>
+      <c r="F30" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -10999,11 +10999,11 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>268</v>
+      <c r="F31" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="H31" t="s">
         <v>95</v>
@@ -11020,10 +11020,10 @@
         <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H32" t="s">
         <v>96</v>
@@ -11040,10 +11040,10 @@
         <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -11063,7 +11063,7 @@
         <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="H34"/>
     </row>
@@ -11081,7 +11081,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H35"/>
     </row>
@@ -11096,7 +11096,7 @@
         <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -11107,16 +11107,16 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H37"/>
     </row>
@@ -11131,10 +11131,10 @@
         <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H38" t="s">
         <v>100</v>
@@ -11151,10 +11151,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H39" t="s">
         <v>101</v>
@@ -11165,16 +11165,16 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -11185,16 +11185,16 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H41"/>
     </row>
@@ -11209,10 +11209,10 @@
         <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H42"/>
     </row>
@@ -11227,10 +11227,10 @@
         <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H43"/>
     </row>
@@ -11281,7 +11281,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>103</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -11314,7 +11314,7 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -11341,13 +11341,13 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -11356,16 +11356,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -11374,16 +11374,16 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -11392,16 +11392,16 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -11422,16 +11422,16 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -11443,13 +11443,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>104</v>
@@ -11479,13 +11479,13 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>106</v>
@@ -11500,13 +11500,13 @@
         <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
